--- a/issue brief 1 - ACM comparison/simulation take up adjustment.xlsx
+++ b/issue brief 1 - ACM comparison/simulation take up adjustment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Eligible for own illness or maternal disability leave</t>
   </si>
@@ -57,7 +57,22 @@
     <t>Rhode Island</t>
   </si>
   <si>
-    <t>sim elig</t>
+    <t>Participated for own leave</t>
+  </si>
+  <si>
+    <t>Participated for matdis leave</t>
+  </si>
+  <si>
+    <t>Participated for bond leave</t>
+  </si>
+  <si>
+    <t>Participated for illchild leave</t>
+  </si>
+  <si>
+    <t>Participated for illspouse leave</t>
+  </si>
+  <si>
+    <t>Participated for illparent leave</t>
   </si>
 </sst>
 </file>
@@ -114,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -159,22 +174,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -186,10 +192,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -472,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +492,7 @@
     <col min="1" max="1" width="46.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -491,13 +500,13 @@
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -536,94 +545,275 @@
         <v>2</v>
       </c>
       <c r="B4" s="9">
-        <v>3.273680933919685E-2</v>
+        <f>B10/B16</f>
+        <v>0.4373283331153594</v>
       </c>
       <c r="C4" s="9">
-        <v>1.7494518688661517E-2</v>
+        <f>C10/C16</f>
+        <v>0.22656188157998891</v>
       </c>
       <c r="D4" s="9">
-        <v>8.0276187231423574E-2</v>
-      </c>
-      <c r="E4" s="12"/>
+        <f>D10/D16</f>
+        <v>0.77048908276238115</v>
+      </c>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <f t="shared" ref="B5:B9" si="0">B11/B17</f>
+        <v>0.23645367801506906</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" ref="C5:C9" si="1">C11/C17</f>
+        <v>0.18190871369294606</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" ref="D5:D9" si="2">D11/D17</f>
+        <v>0.40141297366730894</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.77398593268615945</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="1"/>
+        <v>0.62072000000000005</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="2"/>
+        <v>0.56539958096378329</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.2998008109984478</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" si="1"/>
+        <v>3.3503903563771691E-2</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="2"/>
+        <v>8.5396537842190007E-2</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
-        <v>4.0418073718319642E-3</v>
-      </c>
-      <c r="C5" s="11">
-        <v>4.1292545416579663E-4</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1.6100847355174802E-3</v>
-      </c>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9">
-        <v>2.578311150329823E-3</v>
-      </c>
-      <c r="C6" s="9">
-        <v>3.5002088118605136E-4</v>
-      </c>
-      <c r="D6" s="9">
-        <v>5.4951697457934474E-4</v>
-      </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11">
-        <v>3.9694167920379594E-3</v>
-      </c>
-      <c r="C7" s="11">
-        <v>3.7716642305282938E-4</v>
-      </c>
-      <c r="D7" s="11">
-        <v>9.3417885678488612E-4</v>
-      </c>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B8" s="9">
-        <v>9.7343478764031939E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.38656820161631783</v>
       </c>
       <c r="C8" s="9">
-        <v>6.3003758613489249E-3</v>
+        <f t="shared" si="1"/>
+        <v>4.3534916780193091E-2</v>
       </c>
       <c r="D8" s="9">
-        <v>2.6758729077141191E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.9736735520453622E-2</v>
       </c>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11">
-        <v>1.2065096632334221E-2</v>
-      </c>
-      <c r="C9" s="11">
-        <v>6.597932762580915E-3</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1.0449065271626241E-2</v>
-      </c>
-      <c r="E9" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.1705572572703998</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" si="1"/>
+        <v>1.8229492798998121E-2</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="2"/>
+        <v>3.1325592646347364E-2</v>
+      </c>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" t="s">
         <v>12</v>
+      </c>
+      <c r="B10" s="13">
+        <v>568461.23379999993</v>
+      </c>
+      <c r="C10" s="13">
+        <v>68691.75</v>
+      </c>
+      <c r="D10" s="3">
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="14">
+        <v>164915.79999999999</v>
+      </c>
+      <c r="C11" s="14">
+        <v>24112</v>
+      </c>
+      <c r="D11" s="15">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="13">
+        <v>199723.2</v>
+      </c>
+      <c r="C12" s="13">
+        <v>25216.75</v>
+      </c>
+      <c r="D12" s="16">
+        <v>3778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="14">
+        <v>67797.255199999985</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1656.5</v>
+      </c>
+      <c r="D13" s="15">
+        <v>565.66666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="13">
+        <v>41997.542560000002</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1470</v>
+      </c>
+      <c r="D14" s="16">
+        <v>204.66666666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="14">
+        <v>67550.566200000001</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1746.75</v>
+      </c>
+      <c r="D15" s="15">
+        <v>345.33333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="17">
+        <v>1299850</v>
+      </c>
+      <c r="C16" s="17">
+        <v>303192</v>
+      </c>
+      <c r="D16" s="17">
+        <v>42181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="17">
+        <v>697455</v>
+      </c>
+      <c r="C17" s="17">
+        <v>132550</v>
+      </c>
+      <c r="D17" s="17">
+        <v>18684</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="17">
+        <v>258045</v>
+      </c>
+      <c r="C18" s="17">
+        <v>40625</v>
+      </c>
+      <c r="D18" s="17">
+        <v>6682</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="17">
+        <v>226141</v>
+      </c>
+      <c r="C19" s="17">
+        <v>49442</v>
+      </c>
+      <c r="D19" s="17">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="17">
+        <v>108642</v>
+      </c>
+      <c r="C20" s="17">
+        <v>33766</v>
+      </c>
+      <c r="D20" s="17">
+        <v>4115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="17">
+        <v>396058</v>
+      </c>
+      <c r="C21" s="17">
+        <v>95820</v>
+      </c>
+      <c r="D21" s="17">
+        <v>11024</v>
       </c>
     </row>
   </sheetData>
